--- a/form-editor/化学课程成绩表.xlsx
+++ b/form-editor/化学课程成绩表.xlsx
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>序号</t>
-  </si>
-  <si>
-    <t>班级名称</t>
   </si>
   <si>
     <t>学号</t>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>19级化学(公费师范生)班</t>
   </si>
   <si>
     <t>张三</t>
@@ -1053,19 +1047,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L1" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="11.6666666666667"/>
-    <col min="5" max="9" width="12.625"/>
+    <col min="2" max="2" width="11.6666666666667"/>
+    <col min="4" max="8" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,10 +1069,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1096,424 +1090,387 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" ht="14.5" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4">
+        <v>201925703001</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4">
+        <v>90</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" ht="14.5" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
-        <v>201925703001</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="4">
+        <v>201925703002</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D3" s="4">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45</v>
+      </c>
+      <c r="H3" s="4">
+        <v>88</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" ht="14.5" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4">
+        <v>201925703003</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
         <v>18</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F4" s="4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4">
+        <v>85</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" ht="14.5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>201925703004</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4">
-        <v>46</v>
-      </c>
-      <c r="I2" s="4">
-        <v>90</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" ht="14.5" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4">
-        <v>201925703002</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D5" s="4">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
         <v>17</v>
       </c>
-      <c r="F3" s="4">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4">
-        <v>45</v>
-      </c>
-      <c r="I3" s="4">
-        <v>88</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" ht="14.5" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4">
-        <v>201925703003</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="H4" s="4">
-        <v>43</v>
-      </c>
-      <c r="I4" s="4">
-        <v>85</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" ht="14.5" spans="1:11">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>201925703004</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4">
-        <v>17</v>
-      </c>
       <c r="G5" s="4">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H5" s="4">
-        <v>40</v>
-      </c>
-      <c r="I5" s="4">
         <v>81</v>
       </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
